--- a/code/condition_files/stim_info.xlsx
+++ b/code/condition_files/stim_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierortiz/github_repos/antiem/code/condition_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-108158338286165837329/Mi unidad/Memory_Attention_Javi_Fer/ANTIEM PsychoPy v.1.85.2/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82DDE79-E0DC-DF42-A70E-426AF229F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D90E4-8D51-6544-864F-7F82C7F7934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{5E174E7F-1373-2C48-A519-C6391A2FBB16}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{5E174E7F-1373-2C48-A519-C6391A2FBB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>1F681.png</t>
   </si>
   <si>
-    <t>1F682.png</t>
-  </si>
-  <si>
     <t>1F68C.png</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>1F983.png</t>
   </si>
   <si>
-    <t>1F985.png</t>
-  </si>
-  <si>
     <t>1F986.png</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>running.png</t>
   </si>
   <si>
-    <t>sailboat.png</t>
-  </si>
-  <si>
     <t>sauropod.png</t>
   </si>
   <si>
@@ -292,12 +283,6 @@
     <t>sideways_left_pointing_index(br).png</t>
   </si>
   <si>
-    <t>sled.png</t>
-  </si>
-  <si>
-    <t>speedboat.png</t>
-  </si>
-  <si>
     <t>surfer(p).png</t>
   </si>
   <si>
@@ -823,9 +808,6 @@
     <t>train_speed_1</t>
   </si>
   <si>
-    <t>train_locomotive_1</t>
-  </si>
-  <si>
     <t>turtle_1</t>
   </si>
   <si>
@@ -844,9 +826,6 @@
     <t>kayak-person-sport-people-svgrepo-com.png</t>
   </si>
   <si>
-    <t>lying-person-reading-svgrepo-com.png</t>
-  </si>
-  <si>
     <t>person-mowing-the-grass-svgrepo-com.png</t>
   </si>
   <si>
@@ -883,9 +862,6 @@
     <t>shark-svgrepo-com.png</t>
   </si>
   <si>
-    <t>ski-jumping-person-fly-sport-svgrepo-com.png</t>
-  </si>
-  <si>
     <t>ski-person-sport-winter-svgrepo-com.png</t>
   </si>
   <si>
@@ -907,9 +883,6 @@
     <t>stick_kayak</t>
   </si>
   <si>
-    <t>stick_reading</t>
-  </si>
-  <si>
     <t>stick_mowing</t>
   </si>
   <si>
@@ -1009,12 +982,6 @@
     <t>shrimp_1</t>
   </si>
   <si>
-    <t>hermit-crab-svgrepo-com.png</t>
-  </si>
-  <si>
-    <t>hermit_crab</t>
-  </si>
-  <si>
     <t>penguin-svgrepo-com.png</t>
   </si>
   <si>
@@ -1024,9 +991,6 @@
     <t>penguin_angry</t>
   </si>
   <si>
-    <t>lobster-svgrepo-com.png</t>
-  </si>
-  <si>
     <t>lobster</t>
   </si>
   <si>
@@ -1064,6 +1028,42 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>pirate_ship2.png</t>
+  </si>
+  <si>
+    <t>speed-35009.png</t>
+  </si>
+  <si>
+    <t>halcon1.png</t>
+  </si>
+  <si>
+    <t>falcon_closeup</t>
+  </si>
+  <si>
+    <t>sled-svgrepo-com.png</t>
+  </si>
+  <si>
+    <t>steam_locomotive.png</t>
+  </si>
+  <si>
+    <t>1536968759.png</t>
+  </si>
+  <si>
+    <t>witch</t>
+  </si>
+  <si>
+    <t>hang-gliding-svgrepo-com.png</t>
+  </si>
+  <si>
+    <t>stick_hangglide</t>
+  </si>
+  <si>
+    <t>lobster-295292.png</t>
+  </si>
+  <si>
+    <t>1393157609.png</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ED3416-846A-9646-8A9C-4A58A25DE50B}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,29 +1454,29 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1484,13 +1484,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1501,10 +1501,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1543,10 +1543,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1568,13 +1568,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1596,13 +1596,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1655,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1666,13 +1666,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1739,10 +1739,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1753,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1823,10 +1823,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>332</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1876,13 +1876,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1893,10 +1893,10 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1963,10 +1963,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1974,13 +1974,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1991,10 +1991,10 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2019,10 +2019,10 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2058,13 +2058,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2086,13 +2086,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -2159,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2184,13 +2184,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2226,13 +2226,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2324,13 +2324,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2338,13 +2338,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2352,13 +2352,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2408,13 +2408,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -2425,10 +2425,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -2467,10 +2467,10 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2478,13 +2478,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2534,13 +2534,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -2562,13 +2562,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2576,13 +2576,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2593,10 +2593,10 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2607,10 +2607,10 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2632,13 +2632,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2646,13 +2646,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2758,13 +2758,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -2786,13 +2786,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -2814,13 +2814,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -2828,13 +2828,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2856,13 +2856,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -2873,10 +2873,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -2884,13 +2884,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C103" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2898,13 +2898,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -2926,13 +2926,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -2954,13 +2954,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C110" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B111" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C111" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B112" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="B113" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="C113" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3038,13 +3038,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B114" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C114" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B115" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C115" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B116" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C116" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B117" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3094,13 +3094,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B118" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C118" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -3108,13 +3108,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B119" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C119" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -3122,13 +3122,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B120" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3136,13 +3136,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B121" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B122" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B123" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C123" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3178,13 +3178,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C124" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -3192,13 +3192,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B125" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C125" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3206,13 +3206,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="B126" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="C126" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B127" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C127" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3234,13 +3234,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B128" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C128" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3248,13 +3248,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B129" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C129" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -3262,13 +3262,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -3276,13 +3276,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C132" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -3304,13 +3304,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C134" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B135" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C135" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B136" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C136" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C137" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -3374,13 +3374,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B138" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C138" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -3388,13 +3388,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C139" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3402,13 +3402,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B140" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C140" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -3416,13 +3416,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B141" t="s">
-        <v>333</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>333</v>
+        <v>146</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -3430,13 +3430,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="C142" t="s">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -3444,13 +3444,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B143" t="s">
-        <v>336</v>
+        <v>137</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -3458,13 +3458,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>328</v>
       </c>
       <c r="C144" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -3472,13 +3472,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B145" t="s">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="C145" t="s">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="D145">
         <v>2</v>
